--- a/Excel Dataframes, EDA and Predictive Modelling/EPL_rank.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/EPL_rank.xlsx
@@ -606,37 +606,37 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>6.889</v>
+        <v>9.532</v>
       </c>
       <c r="E3" t="n">
-        <v>1.482</v>
+        <v>1.636</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="L3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -651,10 +651,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="S3" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -782,245 +782,245 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>4.161</v>
+        <v>9.382999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>7.434</v>
+        <v>7.966</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="K6" t="n">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="L6" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="M6" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N6" t="n">
         <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="R6" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.619</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
-        <v>9.382999999999999</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7.966</v>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
+        <v>12</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K7" t="n">
+        <v>118</v>
+      </c>
+      <c r="L7" t="n">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>20</v>
+      </c>
+      <c r="N7" t="n">
         <v>5</v>
       </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K7" t="n">
-        <v>77</v>
-      </c>
-      <c r="L7" t="n">
-        <v>68</v>
-      </c>
-      <c r="M7" t="n">
-        <v>13</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9</v>
-      </c>
       <c r="O7" t="n">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="R7" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="S7" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.455</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.760999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K8" t="n">
+        <v>56</v>
+      </c>
+      <c r="L8" t="n">
+        <v>43</v>
+      </c>
+      <c r="M8" t="n">
+        <v>8</v>
+      </c>
+      <c r="N8" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.619</v>
-      </c>
-      <c r="F8" t="n">
-        <v>12</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="K8" t="n">
-        <v>118</v>
-      </c>
-      <c r="L8" t="n">
-        <v>89</v>
-      </c>
-      <c r="M8" t="n">
-        <v>20</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5</v>
-      </c>
       <c r="O8" t="n">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="P8" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="R8" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="S8" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>6.455</v>
+        <v>5.132</v>
       </c>
       <c r="E9" t="n">
-        <v>5.760999999999999</v>
+        <v>8.763</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="K9" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="L9" t="n">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="M9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="Q9" t="n">
         <v>0.33</v>
       </c>
       <c r="R9" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="S9" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -1209,68 +1209,68 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4.575</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.352</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
         <v>6</v>
       </c>
-      <c r="D13" t="n">
-        <v>8.997</v>
-      </c>
-      <c r="E13" t="n">
-        <v>11.436</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G13" t="n">
-        <v>11</v>
-      </c>
       <c r="H13" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="K13" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="L13" t="n">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="M13" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N13" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="P13" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
@@ -1280,19 +1280,19 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>6.872</v>
+        <v>8.997</v>
       </c>
       <c r="E14" t="n">
-        <v>12.406</v>
+        <v>11.436</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
@@ -1301,37 +1301,37 @@
         <v>0.67</v>
       </c>
       <c r="K14" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L14" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="M14" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N14" t="n">
         <v>17</v>
       </c>
       <c r="O14" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="P14" t="n">
         <v>0.17</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.67</v>
       </c>
       <c r="Q14" t="n">
         <v>0.17</v>
       </c>
       <c r="R14" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="S14" t="n">
         <v>0.33</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
@@ -1341,19 +1341,19 @@
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>5.194</v>
+        <v>10.725</v>
       </c>
       <c r="E15" t="n">
-        <v>8.997</v>
+        <v>7.461</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="I15" t="n">
         <v>3</v>
@@ -1362,13 +1362,13 @@
         <v>0.6</v>
       </c>
       <c r="K15" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="L15" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M15" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N15" t="n">
         <v>11</v>
@@ -1383,132 +1383,132 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="F16" t="n">
         <v>5</v>
       </c>
-      <c r="D16" t="n">
-        <v>10.725</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7.461</v>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
-      </c>
       <c r="G16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H16" t="n">
         <v>-3</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K16" t="n">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="L16" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="M16" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>1.833</v>
+        <v>6.345000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>7.09</v>
+        <v>7.579000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K17" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="L17" t="n">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N17" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="18">
@@ -1521,40 +1521,40 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>4.164</v>
+        <v>7.098000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>11.784</v>
+        <v>13.87</v>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G18" t="n">
+        <v>12</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>53</v>
+      </c>
+      <c r="L18" t="n">
+        <v>98</v>
+      </c>
+      <c r="M18" t="n">
         <v>9</v>
       </c>
-      <c r="H18" t="n">
-        <v>-3</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K18" t="n">
-        <v>40</v>
-      </c>
-      <c r="L18" t="n">
-        <v>86</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
       <c r="N18" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O18" t="n">
         <v>1</v>
@@ -1566,16 +1566,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
@@ -1585,19 +1585,19 @@
         <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>6.345000000000001</v>
+        <v>5.771</v>
       </c>
       <c r="E19" t="n">
-        <v>7.579000000000001</v>
+        <v>10.271</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H19" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1606,16 +1606,16 @@
         <v>0.2</v>
       </c>
       <c r="K19" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L19" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M19" t="n">
         <v>7</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O19" t="n">
         <v>0.2</v>
@@ -1624,13 +1624,13 @@
         <v>0.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0.2</v>
       </c>
       <c r="S19" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20">
@@ -1704,22 +1704,22 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>3.051</v>
+        <v>2.866</v>
       </c>
       <c r="E21" t="n">
-        <v>5.788</v>
+        <v>3.587</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L21" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O21" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="P21" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="S21" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
@@ -1826,22 +1826,22 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>4.891999999999999</v>
+        <v>5.093</v>
       </c>
       <c r="E23" t="n">
-        <v>10.338</v>
+        <v>12.823</v>
       </c>
       <c r="F23" t="n">
         <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H23" t="n">
-        <v>-9</v>
+        <v>-15</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1850,22 +1850,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L23" t="n">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="M23" t="n">
         <v>7</v>
       </c>
       <c r="N23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="P23" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2189,19 +2189,19 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>16.356</v>
+        <v>17.317</v>
       </c>
       <c r="E4" t="n">
-        <v>6.385</v>
+        <v>6.186</v>
       </c>
       <c r="F4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4" t="n">
         <v>16</v>
@@ -2210,25 +2210,25 @@
         <v>2.67</v>
       </c>
       <c r="K4" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="L4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="R4" t="n">
         <v>0.83</v>
@@ -2362,7 +2362,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
@@ -2372,46 +2372,46 @@
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>15.54</v>
+        <v>25.88</v>
       </c>
       <c r="E7" t="n">
-        <v>17.101</v>
+        <v>15.694</v>
       </c>
       <c r="F7" t="n">
+        <v>19</v>
+      </c>
+      <c r="G7" t="n">
+        <v>12</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>22</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>212</v>
+      </c>
+      <c r="L7" t="n">
+        <v>146</v>
+      </c>
+      <c r="M7" t="n">
+        <v>31</v>
+      </c>
+      <c r="N7" t="n">
         <v>17</v>
-      </c>
-      <c r="G7" t="n">
-        <v>11</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>23</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="K7" t="n">
-        <v>137</v>
-      </c>
-      <c r="L7" t="n">
-        <v>149</v>
-      </c>
-      <c r="M7" t="n">
-        <v>18</v>
-      </c>
-      <c r="N7" t="n">
-        <v>19</v>
       </c>
       <c r="O7" t="n">
         <v>0.45</v>
       </c>
       <c r="P7" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.45</v>
+        <v>0.36</v>
       </c>
       <c r="R7" t="n">
         <v>0.64</v>
@@ -2423,62 +2423,62 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.975</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15.837</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16</v>
+      </c>
+      <c r="G8" t="n">
         <v>11</v>
       </c>
-      <c r="D8" t="n">
-        <v>25.88</v>
-      </c>
-      <c r="E8" t="n">
-        <v>15.694</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>20</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>129</v>
+      </c>
+      <c r="L8" t="n">
+        <v>127</v>
+      </c>
+      <c r="M8" t="n">
+        <v>18</v>
+      </c>
+      <c r="N8" t="n">
         <v>19</v>
       </c>
-      <c r="G8" t="n">
-        <v>12</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-      <c r="I8" t="n">
-        <v>22</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>212</v>
-      </c>
-      <c r="L8" t="n">
-        <v>146</v>
-      </c>
-      <c r="M8" t="n">
-        <v>31</v>
-      </c>
-      <c r="N8" t="n">
-        <v>17</v>
-      </c>
       <c r="O8" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="P8" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="R8" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="S8" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
@@ -2552,37 +2552,37 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>23.607</v>
+        <v>26.312</v>
       </c>
       <c r="E10" t="n">
-        <v>20.061</v>
+        <v>20.342</v>
       </c>
       <c r="F10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J10" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="K10" t="n">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="L10" t="n">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M10" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N10" t="n">
         <v>30</v>
@@ -2597,71 +2597,71 @@
         <v>0.08</v>
       </c>
       <c r="R10" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S10" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8.853</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.845</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K11" t="n">
+        <v>57</v>
+      </c>
+      <c r="L11" t="n">
+        <v>74</v>
+      </c>
+      <c r="M11" t="n">
         <v>11</v>
       </c>
-      <c r="D11" t="n">
-        <v>20.876</v>
-      </c>
-      <c r="E11" t="n">
-        <v>13.352</v>
-      </c>
-      <c r="F11" t="n">
-        <v>16</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="N11" t="n">
         <v>6</v>
       </c>
-      <c r="I11" t="n">
-        <v>19</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K11" t="n">
-        <v>168</v>
-      </c>
-      <c r="L11" t="n">
-        <v>119</v>
-      </c>
-      <c r="M11" t="n">
-        <v>26</v>
-      </c>
-      <c r="N11" t="n">
-        <v>16</v>
-      </c>
       <c r="O11" t="n">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="P11" t="n">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.55</v>
+        <v>0.25</v>
       </c>
       <c r="S11" t="n">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12">
@@ -2728,242 +2728,242 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>14.592</v>
+        <v>14.011</v>
       </c>
       <c r="E13" t="n">
-        <v>10.35</v>
+        <v>18.107</v>
       </c>
       <c r="F13" t="n">
+        <v>16</v>
+      </c>
+      <c r="G13" t="n">
         <v>11</v>
       </c>
-      <c r="G13" t="n">
-        <v>8</v>
-      </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="K13" t="n">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="L13" t="n">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="M13" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="O13" t="n">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
       <c r="P13" t="n">
-        <v>0.14</v>
+        <v>0.44</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="R13" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="S13" t="n">
-        <v>0.57</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>11.217</v>
+        <v>22.214</v>
       </c>
       <c r="E14" t="n">
-        <v>8.34</v>
+        <v>13.58</v>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H14" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J14" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="K14" t="n">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="L14" t="n">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="M14" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8</v>
+        <v>0.55</v>
       </c>
       <c r="P14" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2</v>
+        <v>0.55</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="n">
+        <v>7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14.592</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10.35</v>
+      </c>
+      <c r="F15" t="n">
+        <v>11</v>
+      </c>
+      <c r="G15" t="n">
+        <v>8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+      <c r="I15" t="n">
         <v>10</v>
       </c>
-      <c r="D15" t="n">
-        <v>14.166</v>
-      </c>
-      <c r="E15" t="n">
-        <v>12.463</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="J15" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K15" t="n">
+        <v>105</v>
+      </c>
+      <c r="L15" t="n">
+        <v>79</v>
+      </c>
+      <c r="M15" t="n">
         <v>17</v>
       </c>
-      <c r="G15" t="n">
-        <v>17</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>14</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>140</v>
-      </c>
-      <c r="L15" t="n">
-        <v>105</v>
-      </c>
-      <c r="M15" t="n">
-        <v>14</v>
-      </c>
       <c r="N15" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7</v>
+        <v>0.57</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.2</v>
+        <v>0.29</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="S15" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>12.635</v>
+        <v>14.166</v>
       </c>
       <c r="E16" t="n">
-        <v>16.955</v>
+        <v>12.463</v>
       </c>
       <c r="F16" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G16" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J16" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="K16" t="n">
+        <v>140</v>
+      </c>
+      <c r="L16" t="n">
         <v>105</v>
       </c>
-      <c r="L16" t="n">
-        <v>113</v>
-      </c>
       <c r="M16" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N16" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="O16" t="n">
-        <v>0.38</v>
+        <v>0.7</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="R16" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="S16" t="n">
         <v>0.5</v>
@@ -2979,61 +2979,61 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>18.935</v>
+        <v>21.476</v>
       </c>
       <c r="E17" t="n">
-        <v>12.366</v>
+        <v>14.518</v>
       </c>
       <c r="F17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H17" t="n">
         <v>-3</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J17" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="K17" t="n">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L17" t="n">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="M17" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O17" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="R17" t="n">
-        <v>0.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="S17" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Sheffield United</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
@@ -3043,19 +3043,19 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>8.759</v>
+        <v>14.079</v>
       </c>
       <c r="E18" t="n">
-        <v>21.927</v>
+        <v>13.225</v>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H18" t="n">
-        <v>-14</v>
+        <v>-5</v>
       </c>
       <c r="I18" t="n">
         <v>8</v>
@@ -3064,37 +3064,37 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="L18" t="n">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="M18" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N18" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="P18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="S18" t="n">
         <v>0.38</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Sheffield United</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
@@ -3104,19 +3104,19 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>14.079</v>
+        <v>8.759</v>
       </c>
       <c r="E19" t="n">
-        <v>13.225</v>
+        <v>21.927</v>
       </c>
       <c r="F19" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H19" t="n">
-        <v>-5</v>
+        <v>-14</v>
       </c>
       <c r="I19" t="n">
         <v>8</v>
@@ -3125,31 +3125,31 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="L19" t="n">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="M19" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N19" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="O19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="S19" t="n">
         <v>0.75</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.38</v>
       </c>
     </row>
     <row r="20">
@@ -3284,40 +3284,40 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.282</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7.677</v>
+      </c>
+      <c r="F22" t="n">
         <v>4</v>
       </c>
-      <c r="D22" t="n">
-        <v>4.879</v>
-      </c>
-      <c r="E22" t="n">
-        <v>9.201000000000001</v>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
-      </c>
       <c r="G22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H22" t="n">
         <v>-7</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="K22" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="L22" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
         <v>1</v>
@@ -3329,10 +3329,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="S22" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="23">
@@ -3406,22 +3406,22 @@
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>6.375999999999999</v>
+        <v>7.994999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>9.551</v>
+        <v>10.987</v>
       </c>
       <c r="F24" t="n">
         <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H24" t="n">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -3430,31 +3430,31 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="L24" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P24" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="S24" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -4125,129 +4125,129 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>7.899999999999999</v>
+        <v>10.523</v>
       </c>
       <c r="E11" t="n">
-        <v>3.303</v>
+        <v>4.394</v>
       </c>
       <c r="F11" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
         <v>9</v>
       </c>
-      <c r="G11" t="n">
+      <c r="J11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K11" t="n">
+        <v>75</v>
+      </c>
+      <c r="L11" t="n">
+        <v>46</v>
+      </c>
+      <c r="M11" t="n">
+        <v>16</v>
+      </c>
+      <c r="N11" t="n">
         <v>4</v>
       </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-      <c r="I11" t="n">
-        <v>12</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>89</v>
-      </c>
-      <c r="L11" t="n">
-        <v>48</v>
-      </c>
-      <c r="M11" t="n">
-        <v>7</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3</v>
-      </c>
       <c r="O11" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="P11" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R11" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>12.067</v>
+        <v>7.899999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>4.732</v>
+        <v>3.303</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
         <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
         <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L12" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M12" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="R12" t="n">
-        <v>0.6</v>
+        <v>0.17</v>
       </c>
       <c r="S12" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
@@ -4257,19 +4257,19 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>11.434</v>
+        <v>12.067</v>
       </c>
       <c r="E13" t="n">
-        <v>5.577</v>
+        <v>4.732</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="n">
         <v>5</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
       </c>
       <c r="I13" t="n">
         <v>10</v>
@@ -4278,31 +4278,31 @@
         <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L13" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="M13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N13" t="n">
         <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="P13" t="n">
         <v>0.2</v>
       </c>
       <c r="Q13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S13" t="n">
         <v>0.4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.6</v>
       </c>
     </row>
     <row r="14">
@@ -4613,151 +4613,151 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1.493</v>
+        <v>2.1</v>
       </c>
       <c r="E19" t="n">
-        <v>2.942</v>
+        <v>2.089</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L19" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>2.1</v>
+        <v>9.025</v>
       </c>
       <c r="E20" t="n">
-        <v>2.089</v>
+        <v>5.06</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="L20" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>9.025</v>
+        <v>3.297</v>
       </c>
       <c r="E21" t="n">
-        <v>5.06</v>
+        <v>2.904</v>
       </c>
       <c r="F21" t="n">
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -4766,22 +4766,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="L21" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="M21" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -4796,29 +4796,29 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Sheffield United</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>3.297</v>
+        <v>4.193</v>
       </c>
       <c r="E22" t="n">
-        <v>2.904</v>
+        <v>0.716</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -4827,16 +4827,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="L22" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>1</v>
@@ -4857,7 +4857,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Sheffield United</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
@@ -4867,19 +4867,19 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>4.193</v>
+        <v>0.15</v>
       </c>
       <c r="E23" t="n">
-        <v>0.716</v>
+        <v>1.271</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -4888,22 +4888,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="L23" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -5034,184 +5034,184 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>2.482</v>
+        <v>8.746</v>
       </c>
       <c r="E2" t="n">
-        <v>9.484999999999999</v>
+        <v>9.893000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
         <v>-4</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="L2" t="n">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="R2" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="S2" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>4.415</v>
+        <v>1.475</v>
       </c>
       <c r="E3" t="n">
-        <v>3.915999999999999</v>
+        <v>2.432</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
         <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>6.346</v>
+        <v>6.406</v>
       </c>
       <c r="E4" t="n">
-        <v>10.975</v>
+        <v>3.395</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="L4" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="M4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0.33</v>
       </c>
-      <c r="Q4" t="n">
-        <v>0.17</v>
-      </c>
       <c r="R4" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="5">
@@ -5224,177 +5224,177 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4.861</v>
+        <v>4.257</v>
       </c>
       <c r="E5" t="n">
-        <v>13.204</v>
+        <v>9.587</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
         <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="L5" t="n">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="M5" t="n">
         <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.438</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11.347</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-9</v>
+      </c>
+      <c r="I6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
-        <v>4.297</v>
-      </c>
-      <c r="E6" t="n">
-        <v>12.405</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>10</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
       <c r="J6" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="K6" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L6" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P6" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="R6" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="S6" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.632</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10.834</v>
+      </c>
+      <c r="F7" t="n">
         <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6.807</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9.173</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
       </c>
       <c r="G7" t="n">
         <v>12</v>
       </c>
       <c r="H7" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="I7" t="n">
         <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="K7" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L7" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -5461,251 +5461,251 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>2.372</v>
+        <v>5.489</v>
       </c>
       <c r="E9" t="n">
-        <v>7.037000000000001</v>
+        <v>13.378</v>
       </c>
       <c r="F9" t="n">
         <v>4</v>
       </c>
       <c r="G9" t="n">
+        <v>13</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>59</v>
+      </c>
+      <c r="L9" t="n">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
         <v>6</v>
       </c>
-      <c r="H9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>13</v>
-      </c>
-      <c r="L9" t="n">
-        <v>47</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3</v>
-      </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>2.058</v>
+        <v>6.591</v>
       </c>
       <c r="E10" t="n">
-        <v>3.744</v>
+        <v>10.402</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H10" t="n">
         <v>-2</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="K10" t="n">
+        <v>54</v>
+      </c>
+      <c r="L10" t="n">
+        <v>60</v>
+      </c>
+      <c r="M10" t="n">
         <v>11</v>
       </c>
-      <c r="L10" t="n">
-        <v>35</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>8.657</v>
+        <v>4.503</v>
       </c>
       <c r="E11" t="n">
-        <v>16.392</v>
+        <v>8.355</v>
       </c>
       <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
         <v>8</v>
       </c>
-      <c r="G11" t="n">
-        <v>17</v>
-      </c>
       <c r="H11" t="n">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="K11" t="n">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="L11" t="n">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="n">
         <v>12</v>
       </c>
-      <c r="N11" t="n">
-        <v>21</v>
-      </c>
       <c r="O11" t="n">
-        <v>0.57</v>
+        <v>0.75</v>
       </c>
       <c r="P11" t="n">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>6.174</v>
+        <v>8.744999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>13.571</v>
+        <v>18.241</v>
       </c>
       <c r="F12" t="n">
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H12" t="n">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K12" t="n">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="L12" t="n">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="M12" t="n">
         <v>11</v>
       </c>
       <c r="N12" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="S12" t="n">
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Sheffield United</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
@@ -5715,16 +5715,16 @@
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>3.692</v>
+        <v>0.9380000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>7.984</v>
+        <v>6.496</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
         <v>-7</v>
@@ -5736,22 +5736,22 @@
         <v>0.33</v>
       </c>
       <c r="K13" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="L13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="P13" t="n">
         <v>0.67</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.33</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -5766,7 +5766,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
@@ -5776,16 +5776,16 @@
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>4.138</v>
+        <v>1.626</v>
       </c>
       <c r="E14" t="n">
-        <v>9.554</v>
+        <v>7.863</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H14" t="n">
         <v>-5</v>
@@ -5797,16 +5797,16 @@
         <v>0.33</v>
       </c>
       <c r="K14" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L14" t="n">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
@@ -5827,87 +5827,87 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Sheffield United</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9380000000000001</v>
+        <v>4.356</v>
       </c>
       <c r="E15" t="n">
-        <v>6.496</v>
+        <v>6.185</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>8</v>
       </c>
       <c r="H15" t="n">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="K15" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="L15" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="P15" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="S15" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>4.739</v>
+        <v>8.308</v>
       </c>
       <c r="E16" t="n">
-        <v>12.095</v>
+        <v>20.331</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
         <v>-10</v>
@@ -5916,217 +5916,217 @@
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="K16" t="n">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="L16" t="n">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="M16" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="O16" t="n">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="P16" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>5.345</v>
+        <v>6.51</v>
       </c>
       <c r="E17" t="n">
-        <v>13.526</v>
+        <v>16.471</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" t="n">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="L17" t="n">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="M17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="P17" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>5.225</v>
+        <v>1.974</v>
       </c>
       <c r="E18" t="n">
-        <v>12.662</v>
+        <v>1.636</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="M18" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>6.19</v>
+        <v>1.843</v>
       </c>
       <c r="E19" t="n">
-        <v>18.331</v>
+        <v>9.864000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="H19" t="n">
-        <v>-12</v>
+        <v>-6</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="M19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="P19" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="S19" t="n">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="20">
@@ -6200,22 +6200,22 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>1.007</v>
+        <v>1.957</v>
       </c>
       <c r="E21" t="n">
-        <v>7.128</v>
+        <v>11.52</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -6224,16 +6224,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="L21" t="n">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -6261,22 +6261,22 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>4.909</v>
+        <v>4.073</v>
       </c>
       <c r="E22" t="n">
-        <v>13.887</v>
+        <v>10.559</v>
       </c>
       <c r="F22" t="n">
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H22" t="n">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -6285,22 +6285,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L22" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="M22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N22" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O22" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -6325,16 +6325,16 @@
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>2.772</v>
+        <v>3.163</v>
       </c>
       <c r="E23" t="n">
-        <v>7.625999999999999</v>
+        <v>7.388999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H23" t="n">
         <v>-6</v>
@@ -6349,28 +6349,28 @@
         <v>38</v>
       </c>
       <c r="L23" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="24">
@@ -6383,22 +6383,22 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>2.177</v>
+        <v>3.528</v>
       </c>
       <c r="E24" t="n">
-        <v>8.821999999999999</v>
+        <v>11.438</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -6407,22 +6407,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="L24" t="n">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O24" t="n">
-        <v>0.67</v>
+        <v>0.25</v>
       </c>
       <c r="P24" t="n">
-        <v>0.33</v>
+        <v>0.75</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -6553,7 +6553,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
@@ -6563,52 +6563,52 @@
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>21.147</v>
+        <v>16.236</v>
       </c>
       <c r="E2" t="n">
-        <v>9.721</v>
+        <v>14.174</v>
       </c>
       <c r="F2" t="n">
+        <v>18</v>
+      </c>
+      <c r="G2" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+      <c r="I2" t="n">
         <v>20</v>
       </c>
-      <c r="G2" t="n">
-        <v>6</v>
-      </c>
-      <c r="H2" t="n">
-        <v>14</v>
-      </c>
-      <c r="I2" t="n">
-        <v>19</v>
-      </c>
       <c r="J2" t="n">
-        <v>2.11</v>
+        <v>2.22</v>
       </c>
       <c r="K2" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L2" t="n">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="M2" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N2" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R2" t="n">
         <v>0.33</v>
       </c>
-      <c r="P2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.89</v>
-      </c>
       <c r="S2" t="n">
-        <v>0.11</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="3">
@@ -6621,116 +6621,116 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>21.671</v>
+        <v>18.685</v>
       </c>
       <c r="E3" t="n">
-        <v>8.257999999999999</v>
+        <v>11.148</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
-        <v>2.11</v>
+        <v>1.75</v>
       </c>
       <c r="K3" t="n">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="L3" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="P3" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="S3" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>16.419</v>
+        <v>17.266</v>
       </c>
       <c r="E4" t="n">
-        <v>11.584</v>
+        <v>12.801</v>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="n">
         <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="K4" t="n">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="L4" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="M4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N4" t="n">
         <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="P4" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.12</v>
+        <v>0.4</v>
       </c>
       <c r="R4" t="n">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="S4" t="n">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -6746,43 +6746,43 @@
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>18.143</v>
+        <v>18.865</v>
       </c>
       <c r="E5" t="n">
-        <v>22.942</v>
+        <v>20.45</v>
       </c>
       <c r="F5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="n">
         <v>13</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="K5" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="L5" t="n">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="M5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N5" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="P5" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="Q5" t="n">
         <v>0.33</v>
@@ -6797,68 +6797,68 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>16.275</v>
+        <v>17.314</v>
       </c>
       <c r="E6" t="n">
-        <v>17.348</v>
+        <v>19.719</v>
       </c>
       <c r="F6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H6" t="n">
         <v>-1</v>
       </c>
       <c r="I6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J6" t="n">
-        <v>1.4</v>
+        <v>1.64</v>
       </c>
       <c r="K6" t="n">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L6" t="n">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N6" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
@@ -6868,119 +6868,119 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>15.178</v>
+        <v>12.711</v>
       </c>
       <c r="E7" t="n">
-        <v>13.426</v>
+        <v>13.159</v>
       </c>
       <c r="F7" t="n">
         <v>14</v>
       </c>
       <c r="G7" t="n">
+        <v>16</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I7" t="n">
         <v>12</v>
       </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11</v>
-      </c>
       <c r="J7" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="K7" t="n">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="L7" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M7" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O7" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="S7" t="n">
-        <v>0.38</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>11.431</v>
+        <v>20.477</v>
       </c>
       <c r="E8" t="n">
-        <v>12.029</v>
+        <v>21.874</v>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J8" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="K8" t="n">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="L8" t="n">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="M8" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="N8" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="O8" t="n">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
       <c r="P8" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="R8" t="n">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S8" t="n">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
@@ -6990,46 +6990,46 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>11.498</v>
+        <v>14.676</v>
       </c>
       <c r="E9" t="n">
-        <v>13.954</v>
+        <v>11.389</v>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H9" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="K9" t="n">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="L9" t="n">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="M9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O9" t="n">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="P9" t="n">
         <v>0.12</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="R9" t="n">
         <v>0.25</v>
@@ -7041,7 +7041,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
@@ -7051,113 +7051,113 @@
         <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>18.794</v>
+        <v>16.382</v>
       </c>
       <c r="E10" t="n">
-        <v>19.06</v>
+        <v>18.609</v>
       </c>
       <c r="F10" t="n">
         <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K10" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L10" t="n">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M10" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="R10" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>7.471</v>
+      </c>
+      <c r="E11" t="n">
+        <v>14.147</v>
+      </c>
+      <c r="F11" t="n">
         <v>10</v>
       </c>
-      <c r="D11" t="n">
-        <v>17.55</v>
-      </c>
-      <c r="E11" t="n">
-        <v>16.435</v>
-      </c>
-      <c r="F11" t="n">
-        <v>11</v>
-      </c>
       <c r="G11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="I11" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="K11" t="n">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="L11" t="n">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="M11" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3</v>
+        <v>0.83</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="R11" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="12">
@@ -7170,366 +7170,366 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>11.916</v>
+      </c>
+      <c r="E12" t="n">
+        <v>17.27</v>
+      </c>
+      <c r="F12" t="n">
         <v>11</v>
       </c>
-      <c r="D12" t="n">
-        <v>17.116</v>
-      </c>
-      <c r="E12" t="n">
-        <v>20.728</v>
-      </c>
-      <c r="F12" t="n">
-        <v>16</v>
-      </c>
       <c r="G12" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H12" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="K12" t="n">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="L12" t="n">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="M12" t="n">
+        <v>17</v>
+      </c>
+      <c r="N12" t="n">
         <v>21</v>
       </c>
-      <c r="N12" t="n">
-        <v>24</v>
-      </c>
       <c r="O12" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="P12" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="R12" t="n">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="S12" t="n">
-        <v>0.55</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12.181</v>
+      </c>
+      <c r="E13" t="n">
+        <v>22.093</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15</v>
+      </c>
+      <c r="G13" t="n">
+        <v>23</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-8</v>
+      </c>
+      <c r="I13" t="n">
         <v>11</v>
       </c>
-      <c r="D13" t="n">
-        <v>16.964</v>
-      </c>
-      <c r="E13" t="n">
-        <v>16.881</v>
-      </c>
-      <c r="F13" t="n">
-        <v>13</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="J13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>111</v>
+      </c>
+      <c r="L13" t="n">
+        <v>150</v>
+      </c>
+      <c r="M13" t="n">
         <v>15</v>
       </c>
-      <c r="H13" t="n">
-        <v>-2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>13</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="K13" t="n">
-        <v>143</v>
-      </c>
-      <c r="L13" t="n">
-        <v>131</v>
-      </c>
-      <c r="M13" t="n">
-        <v>22</v>
-      </c>
       <c r="N13" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="O13" t="n">
-        <v>0.73</v>
+        <v>0.6</v>
       </c>
       <c r="P13" t="n">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R13" t="n">
-        <v>0.27</v>
+        <v>0.2</v>
       </c>
       <c r="S13" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>13.605</v>
+        <v>17.789</v>
       </c>
       <c r="E14" t="n">
-        <v>22.407</v>
+        <v>16.208</v>
       </c>
       <c r="F14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H14" t="n">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="I14" t="n">
         <v>11</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="K14" t="n">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="L14" t="n">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="M14" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N14" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O14" t="n">
-        <v>0.55</v>
+        <v>0.8</v>
       </c>
       <c r="P14" t="n">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="R14" t="n">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="S14" t="n">
-        <v>0.73</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>17.686</v>
+        <v>3.387</v>
       </c>
       <c r="E15" t="n">
-        <v>18.694</v>
+        <v>6.688000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H15" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I15" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="L15" t="n">
-        <v>185</v>
+        <v>55</v>
       </c>
       <c r="M15" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="N15" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="S15" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>6.51</v>
+        <v>16.59</v>
       </c>
       <c r="E16" t="n">
-        <v>9.818999999999999</v>
+        <v>21.879</v>
       </c>
       <c r="F16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H16" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J16" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="K16" t="n">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="L16" t="n">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N16" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="O16" t="n">
-        <v>0.57</v>
+        <v>0.27</v>
       </c>
       <c r="P16" t="n">
-        <v>0.29</v>
+        <v>0.55</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="R16" t="n">
-        <v>0.29</v>
+        <v>0.36</v>
       </c>
       <c r="S16" t="n">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>4.734</v>
+        <v>14.661</v>
       </c>
       <c r="E17" t="n">
-        <v>9.215</v>
+        <v>19.46</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H17" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J17" t="n">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="K17" t="n">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="L17" t="n">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="N17" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="S17" t="n">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
@@ -7539,19 +7539,19 @@
         <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>5.802</v>
+        <v>4.827999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>13.711</v>
+        <v>15.105</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
         <v>11</v>
       </c>
       <c r="H18" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="I18" t="n">
         <v>5</v>
@@ -7560,22 +7560,22 @@
         <v>0.71</v>
       </c>
       <c r="K18" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="L18" t="n">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O18" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="P18" t="n">
         <v>0.57</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.43</v>
       </c>
       <c r="Q18" t="n">
         <v>0.14</v>
@@ -7584,373 +7584,373 @@
         <v>0.43</v>
       </c>
       <c r="S18" t="n">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>4.895</v>
+        <v>4.907</v>
       </c>
       <c r="E19" t="n">
-        <v>12.881</v>
+        <v>6.309</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H19" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="K19" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="L19" t="n">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N19" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="P19" t="n">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="R19" t="n">
-        <v>0.57</v>
+        <v>0.25</v>
       </c>
       <c r="S19" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>9.848000000000001</v>
+        <v>3.024</v>
       </c>
       <c r="E20" t="n">
-        <v>17.445</v>
+        <v>10.282</v>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H20" t="n">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
         <v>0.4</v>
       </c>
       <c r="K20" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="L20" t="n">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="M20" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P20" t="n">
         <v>0.8</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q20" t="n">
-        <v>0.1</v>
-      </c>
       <c r="R20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>4.823</v>
+        <v>8.237</v>
       </c>
       <c r="E21" t="n">
-        <v>4.201</v>
+        <v>18.676</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="H21" t="n">
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
         <v>0.33</v>
       </c>
       <c r="K21" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="L21" t="n">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="M21" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>5.704</v>
+        <v>7.662</v>
       </c>
       <c r="E22" t="n">
-        <v>6.686</v>
+        <v>17.433</v>
       </c>
       <c r="F22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>-4</v>
+        <v>-13</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="K22" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="L22" t="n">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="M22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N22" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="S22" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Sheffield United</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>5.476</v>
+        <v>5.235</v>
       </c>
       <c r="E23" t="n">
-        <v>15.572</v>
+        <v>15.998</v>
       </c>
       <c r="F23" t="n">
+        <v>6</v>
+      </c>
+      <c r="G23" t="n">
+        <v>16</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-10</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K23" t="n">
+        <v>72</v>
+      </c>
+      <c r="L23" t="n">
+        <v>137</v>
+      </c>
+      <c r="M23" t="n">
         <v>4</v>
       </c>
-      <c r="G23" t="n">
-        <v>11</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-7</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>46</v>
-      </c>
-      <c r="L23" t="n">
-        <v>101</v>
-      </c>
-      <c r="M23" t="n">
-        <v>8</v>
-      </c>
       <c r="N23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="P23" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Sheffield United</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>4.795</v>
+        <v>5.418</v>
       </c>
       <c r="E24" t="n">
-        <v>12.702</v>
+        <v>10.38</v>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H24" t="n">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="L24" t="n">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N24" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="P24" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="S24" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -7964,7 +7964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8072,56 +8072,56 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.921</v>
+        <v>12.254</v>
       </c>
       <c r="E2" t="n">
-        <v>1.531</v>
+        <v>1.989</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="L2" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
@@ -8140,49 +8140,49 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>8.000999999999999</v>
+        <v>9.718999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>6.507</v>
+        <v>7.323</v>
       </c>
       <c r="F3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>75</v>
+      </c>
+      <c r="L3" t="n">
+        <v>79</v>
+      </c>
+      <c r="M3" t="n">
+        <v>11</v>
+      </c>
+      <c r="N3" t="n">
         <v>8</v>
       </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>55</v>
-      </c>
-      <c r="L3" t="n">
-        <v>69</v>
-      </c>
-      <c r="M3" t="n">
-        <v>10</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7</v>
-      </c>
       <c r="O3" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="R3" t="n">
         <v>1</v>
@@ -8204,46 +8204,46 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>18.172</v>
+        <v>16.966</v>
       </c>
       <c r="E4" t="n">
-        <v>8.208</v>
+        <v>5.654</v>
       </c>
       <c r="F4" t="n">
+        <v>18</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14</v>
+      </c>
+      <c r="I4" t="n">
         <v>21</v>
       </c>
-      <c r="G4" t="n">
-        <v>8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13</v>
-      </c>
-      <c r="I4" t="n">
-        <v>19</v>
-      </c>
       <c r="J4" t="n">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>125</v>
       </c>
       <c r="L4" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>0.71</v>
+        <v>0.57</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.29</v>
+        <v>0.43</v>
       </c>
       <c r="R4" t="n">
         <v>0.71</v>
@@ -8255,727 +8255,727 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>9.553000000000001</v>
+        <v>16.795</v>
       </c>
       <c r="E5" t="n">
-        <v>7.141</v>
+        <v>7.018000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J5" t="n">
-        <v>2.6</v>
+        <v>2.43</v>
       </c>
       <c r="K5" t="n">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="L5" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N5" t="n">
         <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8</v>
+        <v>0.57</v>
       </c>
       <c r="R5" t="n">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.227</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.887</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.867</v>
-      </c>
-      <c r="F6" t="n">
-        <v>12</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5</v>
-      </c>
       <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
         <v>7</v>
       </c>
-      <c r="I6" t="n">
-        <v>10</v>
-      </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="K6" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="L6" t="n">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="M6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="S6" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>5.932</v>
+        <v>10.625</v>
       </c>
       <c r="E7" t="n">
-        <v>7.366999999999999</v>
+        <v>9.036</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K7" t="n">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="L7" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M7" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="P7" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="R7" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>16.562</v>
+        <v>10.454</v>
       </c>
       <c r="E8" t="n">
-        <v>8.116</v>
+        <v>7.258</v>
       </c>
       <c r="F8" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="K8" t="n">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="L8" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="M8" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="R8" t="n">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="S8" t="n">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>3.123</v>
+        <v>13.293</v>
       </c>
       <c r="E9" t="n">
-        <v>3.283</v>
+        <v>10.826</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="K9" t="n">
+        <v>97</v>
+      </c>
+      <c r="L9" t="n">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
         <v>18</v>
       </c>
-      <c r="L9" t="n">
-        <v>35</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="R9" t="n">
         <v>1</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.99</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8.401999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" t="n">
         <v>5</v>
       </c>
-      <c r="D10" t="n">
-        <v>6.776</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8.087999999999999</v>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4</v>
-      </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
         <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="L10" t="n">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="M10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="P10" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>11.014</v>
+        <v>12.231</v>
       </c>
       <c r="E11" t="n">
-        <v>10.34</v>
+        <v>14.029</v>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" t="n">
         <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="L11" t="n">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
         <v>15</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="O11" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>11.418</v>
+        <v>7.624</v>
       </c>
       <c r="E12" t="n">
-        <v>9.988</v>
+        <v>7.545999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
         <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J12" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="L12" t="n">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="M12" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N12" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
       <c r="R12" t="n">
-        <v>0.57</v>
+        <v>0.4</v>
       </c>
       <c r="S12" t="n">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.843</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
         <v>5</v>
       </c>
-      <c r="D13" t="n">
-        <v>7.554</v>
-      </c>
-      <c r="E13" t="n">
-        <v>6.783</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G13" t="n">
-        <v>5</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
       <c r="J13" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="K13" t="n">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="L13" t="n">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="M13" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="P13" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="R13" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>6.044</v>
+        <v>6.999</v>
       </c>
       <c r="E14" t="n">
-        <v>8.423</v>
+        <v>11.607</v>
       </c>
       <c r="F14" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K14" t="n">
+        <v>71</v>
+      </c>
+      <c r="L14" t="n">
+        <v>79</v>
+      </c>
+      <c r="M14" t="n">
         <v>7</v>
       </c>
-      <c r="G14" t="n">
-        <v>6</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K14" t="n">
-        <v>52</v>
-      </c>
-      <c r="L14" t="n">
-        <v>62</v>
-      </c>
-      <c r="M14" t="n">
-        <v>8</v>
-      </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="R14" t="n">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>3.693</v>
+        <v>1.824</v>
       </c>
       <c r="E15" t="n">
-        <v>13.301</v>
+        <v>2.635</v>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="K15" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Sheffield United</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>5.782</v>
+        <v>2.601</v>
       </c>
       <c r="E16" t="n">
-        <v>5.568</v>
+        <v>4.425</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
         <v>1.5</v>
       </c>
       <c r="K16" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="L16" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="M16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P16" t="n">
         <v>0.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0.5</v>
@@ -8987,123 +8987,123 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>10.612</v>
+        <v>6.468999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>7.743</v>
+        <v>9.027000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G17" t="n">
         <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K17" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L17" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="M17" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="R17" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="S17" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5.162</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.919</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" t="n">
         <v>5</v>
       </c>
-      <c r="D18" t="n">
-        <v>6.595000000000001</v>
-      </c>
-      <c r="E18" t="n">
-        <v>10.368</v>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K18" t="n">
+        <v>40</v>
+      </c>
+      <c r="L18" t="n">
+        <v>36</v>
+      </c>
+      <c r="M18" t="n">
         <v>7</v>
       </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>7</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>54</v>
-      </c>
-      <c r="L18" t="n">
-        <v>77</v>
-      </c>
-      <c r="M18" t="n">
-        <v>8</v>
-      </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="R18" t="n">
-        <v>0.6</v>
+        <v>0.33</v>
       </c>
       <c r="S18" t="n">
-        <v>0.4</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="19">
@@ -9119,226 +9119,226 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>14.654</v>
+        <v>13.441</v>
       </c>
       <c r="E19" t="n">
-        <v>10.256</v>
+        <v>11.051</v>
       </c>
       <c r="F19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" t="n">
         <v>7</v>
       </c>
-      <c r="I19" t="n">
-        <v>8</v>
-      </c>
       <c r="J19" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="K19" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="L19" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="P19" t="n">
         <v>0.5</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.33</v>
       </c>
       <c r="Q19" t="n">
         <v>0.17</v>
       </c>
       <c r="R19" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="S19" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>10.084</v>
+        <v>0.457</v>
       </c>
       <c r="E20" t="n">
-        <v>7.641999999999999</v>
+        <v>1.189</v>
       </c>
       <c r="F20" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
         <v>8</v>
       </c>
-      <c r="J20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="K20" t="n">
-        <v>98</v>
-      </c>
       <c r="L20" t="n">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="M20" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Sheffield United</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>3.041</v>
+        <v>2.089</v>
       </c>
       <c r="E21" t="n">
-        <v>7.721</v>
+        <v>2.1</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L21" t="n">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>3.76</v>
+        <v>1.347</v>
       </c>
       <c r="E22" t="n">
-        <v>3.443</v>
+        <v>2.527</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M22" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>4</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9347,6 +9347,67 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>10</v>
+      </c>
+      <c r="L23" t="n">
+        <v>9</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
